--- a/comparison/wall-1element-dynamic-elastic.xlsx
+++ b/comparison/wall-1element-dynamic-elastic.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -653,154 +653,154 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.19321055101102E-4</c:v>
+                  <c:v>1.1932105509999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3857086892592E-4</c:v>
+                  <c:v>2.3857086892999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9870354084365402E-4</c:v>
+                  <c:v>3.9870354083999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.82898562252305E-4</c:v>
+                  <c:v>3.8289856224999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6609475589853898E-4</c:v>
+                  <c:v>4.660947559E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6736360169721998E-4</c:v>
+                  <c:v>4.6736360169999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0303165425191099E-4</c:v>
+                  <c:v>4.0303165425000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2565708638638998E-4</c:v>
+                  <c:v>4.2565708638999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.7508049653246003E-4</c:v>
+                  <c:v>3.7508049653000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.4255343474772599E-4</c:v>
+                  <c:v>3.4255343475E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.2670013629702198E-4</c:v>
+                  <c:v>3.2670013630000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.41424506313815E-4</c:v>
+                  <c:v>2.4142450630999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.9022144391673195E-5</c:v>
+                  <c:v>8.9022144392E-5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.1288400113530899E-5</c:v>
+                  <c:v>-1.1288400114E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.20507036561655E-5</c:v>
+                  <c:v>1.2050703656E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.5821610493380099E-4</c:v>
+                  <c:v>-1.5821610493E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.0667934021910601E-4</c:v>
+                  <c:v>-1.0667934022E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.5665199662402799E-4</c:v>
+                  <c:v>-1.5665199661999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-2.4665033527379398E-4</c:v>
+                  <c:v>-2.4665033526999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.7493553342586601E-4</c:v>
+                  <c:v>-1.7493553342999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.5144140981187999E-4</c:v>
+                  <c:v>-2.5144140980999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-3.5298179625138502E-4</c:v>
+                  <c:v>-3.5298179625E-4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-3.39496252143327E-4</c:v>
+                  <c:v>-3.3949625214000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.8053840916660099E-4</c:v>
+                  <c:v>-1.8053840916999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-3.24470263182911E-4</c:v>
+                  <c:v>-3.2447026318000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-2.4564620342800401E-4</c:v>
+                  <c:v>-2.4564620342999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1.17180217720186E-4</c:v>
+                  <c:v>-1.1718021772E-4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1.25143144115509E-4</c:v>
+                  <c:v>-1.2514314412000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-8.5507930143871301E-5</c:v>
+                  <c:v>-8.5507930143999996E-5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.5430723884757098E-5</c:v>
+                  <c:v>6.5430723884999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.4641235926317604E-5</c:v>
+                  <c:v>8.4641235926E-5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-4.5508125897811699E-5</c:v>
+                  <c:v>-4.5508125897999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-8.0870313337462303E-5</c:v>
+                  <c:v>-8.0870313336999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-2.30394422056088E-4</c:v>
+                  <c:v>-2.3039442205999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-3.6963034991924898E-4</c:v>
+                  <c:v>-3.6963034992000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-3.03715015551874E-4</c:v>
+                  <c:v>-3.0371501555000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.78253194217449E-4</c:v>
+                  <c:v>-1.7825319421999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-3.75262314572919E-4</c:v>
+                  <c:v>-3.7526231457E-4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-3.0022828697431902E-4</c:v>
+                  <c:v>-3.0022828696999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-2.26260943685111E-4</c:v>
+                  <c:v>-2.2626094369E-4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-1.5458784939863601E-4</c:v>
+                  <c:v>-1.5458784939999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.1872454577354E-5</c:v>
+                  <c:v>2.1872454577000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.33176754678672E-4</c:v>
+                  <c:v>1.3317675468000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.03183683180048E-4</c:v>
+                  <c:v>2.0318368317999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.4369285747564099E-4</c:v>
+                  <c:v>3.4369285748000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.9122743740748302E-4</c:v>
+                  <c:v>3.9122743741E-4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.67474172432036E-4</c:v>
+                  <c:v>3.6747417242999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.9907058215690001E-4</c:v>
+                  <c:v>3.9907058216000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.3644182807315799E-4</c:v>
+                  <c:v>3.3644182806999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.0245140857233E-4</c:v>
+                  <c:v>2.0245140856999999E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1167,11 +1167,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="281577168"/>
-        <c:axId val="281578344"/>
+        <c:axId val="350905760"/>
+        <c:axId val="350904192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="281577168"/>
+        <c:axId val="350905760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1228,12 +1228,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281578344"/>
+        <c:crossAx val="350904192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="281578344"/>
+        <c:axId val="350904192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,7 +1290,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281577168"/>
+        <c:crossAx val="350905760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1819,154 +1819,154 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.3155320561197801E-4</c:v>
+                  <c:v>-1.3155320560999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.6245653100916703E-4</c:v>
+                  <c:v>-2.6245653101000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.39055635103997E-4</c:v>
+                  <c:v>-4.3905563509999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.2128927272901302E-4</c:v>
+                  <c:v>-4.2128927273000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.1340107293592501E-4</c:v>
+                  <c:v>-5.1340107293999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.1411592024418705E-4</c:v>
+                  <c:v>-5.1411592023999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4.4351862609197102E-4</c:v>
+                  <c:v>-4.4351862609E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4.6881857683435E-4</c:v>
+                  <c:v>-4.6881857683000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.1223955359649699E-4</c:v>
+                  <c:v>-4.122395536E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.7706333911850001E-4</c:v>
+                  <c:v>-3.7706333912E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.59649607878216E-4</c:v>
+                  <c:v>-3.5964960788E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.65251039606217E-4</c:v>
+                  <c:v>-2.6525103961E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-9.7836765208018602E-5</c:v>
+                  <c:v>-9.7836765207999995E-5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.20179728888188E-5</c:v>
+                  <c:v>1.2017972889E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.29727461700267E-5</c:v>
+                  <c:v>-1.297274617E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.7460463665868199E-4</c:v>
+                  <c:v>1.7460463666E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.16044252651298E-4</c:v>
+                  <c:v>1.1604425265E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7340769698256901E-4</c:v>
+                  <c:v>1.7340769697999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.7113084440033201E-4</c:v>
+                  <c:v>2.7113084440000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9135082754011699E-4</c:v>
+                  <c:v>1.9135082754E-4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.7796008272797898E-4</c:v>
+                  <c:v>2.7796008272999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.8791087583488101E-4</c:v>
+                  <c:v>3.8791087582999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.7288369117749898E-4</c:v>
+                  <c:v>3.7288369118000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.9954927064859301E-4</c:v>
+                  <c:v>1.9954927065000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.5775998734413302E-4</c:v>
+                  <c:v>3.5775998733999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.6855622798739598E-4</c:v>
+                  <c:v>2.6855622799000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.3070859808049799E-4</c:v>
+                  <c:v>1.3070859807999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.3819409907223001E-4</c:v>
+                  <c:v>1.3819409906999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.2178750756829599E-5</c:v>
+                  <c:v>9.2178750756999995E-5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-7.0020014400800102E-5</c:v>
+                  <c:v>-7.0020014401000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-9.3287335369911193E-5</c:v>
+                  <c:v>-9.3287335370000003E-5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.8855994302484801E-5</c:v>
+                  <c:v>4.8855994302E-5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.0281192000354606E-5</c:v>
+                  <c:v>9.0281192000000004E-5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.5366775567982699E-4</c:v>
+                  <c:v>2.5366775567999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.0559452323953097E-4</c:v>
+                  <c:v>4.0559452324E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.3515792970332901E-4</c:v>
+                  <c:v>3.3515792970000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.96449910660872E-4</c:v>
+                  <c:v>1.9644991066000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.11885046980013E-4</c:v>
+                  <c:v>4.1188504697999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.3098013364145498E-4</c:v>
+                  <c:v>3.3098013363999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.4929381057810099E-4</c:v>
+                  <c:v>2.4929381058000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.6871878093335899E-4</c:v>
+                  <c:v>1.6871878092999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-2.2934694735079199E-5</c:v>
+                  <c:v>-2.2934694734999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1.4693721827724001E-4</c:v>
+                  <c:v>-1.4693721828000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-2.2451735579550699E-4</c:v>
+                  <c:v>-2.2451735580000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-3.7731893851486399E-4</c:v>
+                  <c:v>-3.7731893850999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-4.3062093082024802E-4</c:v>
+                  <c:v>-4.3062093082000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-4.0505380340296899E-4</c:v>
+                  <c:v>-4.0505380340000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-4.3857356766224901E-4</c:v>
+                  <c:v>-4.3857356766E-4</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-3.6933564130066002E-4</c:v>
+                  <c:v>-3.6933564130000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-2.2402691627754299E-4</c:v>
+                  <c:v>-2.2402691628000001E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2333,11 +2333,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="284971856"/>
-        <c:axId val="284968328"/>
+        <c:axId val="350900664"/>
+        <c:axId val="350907328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="284971856"/>
+        <c:axId val="350900664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2394,12 +2394,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284968328"/>
+        <c:crossAx val="350907328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="284968328"/>
+        <c:axId val="350907328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2456,7 +2456,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284971856"/>
+        <c:crossAx val="350900664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2985,154 +2985,154 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.6823785818908701E-5</c:v>
+                  <c:v>9.6823785819000004E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9452948133006601E-4</c:v>
+                  <c:v>1.9452948133000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.24366282599759E-4</c:v>
+                  <c:v>3.2436628260000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1193643839935102E-4</c:v>
+                  <c:v>3.1193643840000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7904682797665102E-4</c:v>
+                  <c:v>3.7904682798000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8076426199244999E-4</c:v>
+                  <c:v>3.8076426199000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2826064131508597E-4</c:v>
+                  <c:v>3.2826064132000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4569958433303501E-4</c:v>
+                  <c:v>3.4569958433000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0626680892656698E-4</c:v>
+                  <c:v>3.0626680893E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.78629362269187E-4</c:v>
+                  <c:v>2.7862936226999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.6513813801608602E-4</c:v>
+                  <c:v>2.6513813801999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.97924699871721E-4</c:v>
+                  <c:v>1.9792469986999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.1949135788149603E-5</c:v>
+                  <c:v>7.1949135787999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.0170033563830999E-5</c:v>
+                  <c:v>-1.0170033563999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.11344587423645E-5</c:v>
+                  <c:v>1.1134458741999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.2868967620293899E-4</c:v>
+                  <c:v>-1.2868967619999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-8.8927223502011194E-5</c:v>
+                  <c:v>-8.8927223502E-5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.2519983724650199E-4</c:v>
+                  <c:v>-1.2519983725000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-2.0095216636198499E-4</c:v>
+                  <c:v>-2.0095216636E-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.4521088709889299E-4</c:v>
+                  <c:v>-1.4521088710000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.0113172237898699E-4</c:v>
+                  <c:v>-2.0113172238000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2.8820206557646699E-4</c:v>
+                  <c:v>-2.8820206558000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-2.7946578229793499E-4</c:v>
+                  <c:v>-2.7946578230000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.4303031226309799E-4</c:v>
+                  <c:v>-1.4303031225999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-2.6444125383899997E-4</c:v>
+                  <c:v>-2.6444125383999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-2.0412311582438701E-4</c:v>
+                  <c:v>-2.0412311582E-4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-9.0752879684884995E-5</c:v>
+                  <c:v>-9.0752879685000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1.02088996520126E-4</c:v>
+                  <c:v>-1.0208899652E-4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-7.4175323697366302E-5</c:v>
+                  <c:v>-7.4175323697000004E-5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.7986910108214699E-5</c:v>
+                  <c:v>5.7986910108E-5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.9102519754245194E-5</c:v>
+                  <c:v>6.9102519754000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-4.1812274462979103E-5</c:v>
+                  <c:v>-4.1812274463000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-6.1261232321559297E-5</c:v>
+                  <c:v>-6.1261232321999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1.87143572282679E-4</c:v>
+                  <c:v>-1.8714357227999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-3.0593752111525798E-4</c:v>
+                  <c:v>-3.0593752112000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-2.42902103157234E-4</c:v>
+                  <c:v>-2.4290210315999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.44735742922464E-4</c:v>
+                  <c:v>-1.4473574291999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-3.0918709031425699E-4</c:v>
+                  <c:v>-3.0918709030999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-2.4190278452667E-4</c:v>
+                  <c:v>-2.4190278452999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1.83009306116145E-4</c:v>
+                  <c:v>-1.8300930611999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-1.2929349568727299E-4</c:v>
+                  <c:v>-1.2929349569E-4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.95755283201146E-5</c:v>
+                  <c:v>1.957552832E-5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.10204679169671E-4</c:v>
+                  <c:v>1.1020467917E-4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.61966675144868E-4</c:v>
+                  <c:v>1.6196667513999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.81300055475071E-4</c:v>
+                  <c:v>2.8130005548E-4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.2033651959986802E-4</c:v>
+                  <c:v>3.2033651960000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.9598690167949402E-4</c:v>
+                  <c:v>2.9598690168000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.26358036271004E-4</c:v>
+                  <c:v>3.2635803626999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.7533147446990501E-4</c:v>
+                  <c:v>2.7533147446999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.6224423400277199E-4</c:v>
+                  <c:v>1.6224423399999999E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3499,11 +3499,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="284969112"/>
-        <c:axId val="284967936"/>
+        <c:axId val="350906152"/>
+        <c:axId val="350906544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="284969112"/>
+        <c:axId val="350906152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3560,12 +3560,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284967936"/>
+        <c:crossAx val="350906544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="284967936"/>
+        <c:axId val="350906544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3622,7 +3622,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284969112"/>
+        <c:crossAx val="350906152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4151,154 +4151,154 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.4753592272689799E-5</c:v>
+                  <c:v>-1.4826400310999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.9956145830299001E-5</c:v>
+                  <c:v>-3.0224790158000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.0302464035789097E-5</c:v>
+                  <c:v>-4.9999260031000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.82314752419743E-5</c:v>
+                  <c:v>-4.8381926228000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.8242174885043102E-5</c:v>
+                  <c:v>-5.8254362802999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.8750070756472403E-5</c:v>
+                  <c:v>-5.90513642E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5.1055321590102399E-5</c:v>
+                  <c:v>-5.0590765282999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5.3071646074225403E-5</c:v>
+                  <c:v>-5.3045849070000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.6994169509426397E-5</c:v>
+                  <c:v>-4.7601848466000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-4.3876236554767397E-5</c:v>
+                  <c:v>-4.2684064224999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-4.0469605079751801E-5</c:v>
+                  <c:v>-4.0802986280999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.9886507095783999E-5</c:v>
+                  <c:v>-3.0717118408000003E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.2774321966657E-5</c:v>
+                  <c:v>-1.1031561081E-5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0734580411880098E-6</c:v>
+                  <c:v>1.9771967825999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.3082087220332996E-8</c:v>
+                  <c:v>-1.9980764292000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.7528216987694E-5</c:v>
+                  <c:v>1.9480463396999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.36533663337891E-5</c:v>
+                  <c:v>1.4740562487999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.2139554400193301E-5</c:v>
+                  <c:v>1.8085541525E-5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.82455898221773E-5</c:v>
+                  <c:v>3.1280334500999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.2041825025677199E-5</c:v>
+                  <c:v>2.3047572887E-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.5015068882452601E-5</c:v>
+                  <c:v>2.9728318396999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.0774849471737397E-5</c:v>
+                  <c:v>4.5057100056999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.2276681663143601E-5</c:v>
+                  <c:v>4.3593888350000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.7894851946095899E-5</c:v>
+                  <c:v>2.1407199266999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.6312638900440901E-5</c:v>
+                  <c:v>4.0421374744000003E-5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.9255282637525699E-5</c:v>
+                  <c:v>3.3243795259999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.14453689623244E-5</c:v>
+                  <c:v>1.2569617802000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1176908620317901E-5</c:v>
+                  <c:v>1.5647069757999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.6720986947751397E-6</c:v>
+                  <c:v>1.3376894063999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-4.0887386330775602E-9</c:v>
+                  <c:v>-1.0856734057E-5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.5295489684646099E-5</c:v>
+                  <c:v>-1.0290716825999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.0273533472571198E-7</c:v>
+                  <c:v>7.5755566655999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.99939955927437E-5</c:v>
+                  <c:v>8.2339116281999992E-6</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.5853588759456601E-5</c:v>
+                  <c:v>2.8892142889E-5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8483629640621099E-5</c:v>
+                  <c:v>4.8395300079999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.8218074333425399E-5</c:v>
+                  <c:v>3.6670434597000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.2001236723266899E-5</c:v>
+                  <c:v>2.1740273138999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.6812808354721999E-5</c:v>
+                  <c:v>4.8958410144000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.6823247605973101E-5</c:v>
+                  <c:v>3.6630917993000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.1374806153563E-5</c:v>
+                  <c:v>2.7547990109999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8.1542956855948801E-6</c:v>
+                  <c:v>2.1422222871999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.0220517319028401E-6</c:v>
+                  <c:v>-4.2989971264999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1.0790082500739399E-5</c:v>
+                  <c:v>-1.7002538349E-5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-3.6894871329841398E-5</c:v>
+                  <c:v>-2.4239609182E-5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-3.9665186645911197E-5</c:v>
+                  <c:v>-4.4106390509000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-4.0528834798844298E-5</c:v>
+                  <c:v>-4.9494343347999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-5.6012614312206903E-5</c:v>
+                  <c:v>-4.5159890705999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-5.0733342569586803E-5</c:v>
+                  <c:v>-5.0281211386000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-3.2847898083620498E-5</c:v>
+                  <c:v>-4.3250712091999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-3.2261767259081601E-5</c:v>
+                  <c:v>-2.3753903826999999E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4665,11 +4665,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="284969504"/>
-        <c:axId val="284970288"/>
+        <c:axId val="350902232"/>
+        <c:axId val="350902624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="284969504"/>
+        <c:axId val="350902232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4726,12 +4726,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284970288"/>
+        <c:crossAx val="350902624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="284970288"/>
+        <c:axId val="350902624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4788,7 +4788,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284969504"/>
+        <c:crossAx val="350902232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8414,8 +8414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8455,7 +8455,7 @@
         <v>0.02</v>
       </c>
       <c r="C3" s="1">
-        <v>1.19321055101102E-4</v>
+        <v>1.1932105509999999E-4</v>
       </c>
       <c r="D3" s="2">
         <v>1.2223274097777903E-4</v>
@@ -8466,7 +8466,7 @@
         <v>0.04</v>
       </c>
       <c r="C4" s="1">
-        <v>2.3857086892592E-4</v>
+        <v>2.3857086892999999E-4</v>
       </c>
       <c r="D4" s="2">
         <v>2.3637998674530536E-4</v>
@@ -8477,7 +8477,7 @@
         <v>0.06</v>
       </c>
       <c r="C5" s="1">
-        <v>3.9870354084365402E-4</v>
+        <v>3.9870354083999999E-4</v>
       </c>
       <c r="D5" s="2">
         <v>3.9751786971464753E-4</v>
@@ -8488,7 +8488,7 @@
         <v>0.08</v>
       </c>
       <c r="C6" s="1">
-        <v>3.82898562252305E-4</v>
+        <v>3.8289856224999998E-4</v>
       </c>
       <c r="D6" s="2">
         <v>3.8477662019431591E-4</v>
@@ -8499,7 +8499,7 @@
         <v>0.1</v>
       </c>
       <c r="C7" s="1">
-        <v>4.6609475589853898E-4</v>
+        <v>4.660947559E-4</v>
       </c>
       <c r="D7" s="2">
         <v>4.6316729276441038E-4</v>
@@ -8510,7 +8510,7 @@
         <v>0.12</v>
       </c>
       <c r="C8" s="1">
-        <v>4.6736360169721998E-4</v>
+        <v>4.6736360169999998E-4</v>
       </c>
       <c r="D8" s="2">
         <v>4.7362834447994828E-4</v>
@@ -8521,7 +8521,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>4.0303165425191099E-4</v>
+        <v>4.0303165425000003E-4</v>
       </c>
       <c r="D9" s="2">
         <v>3.8831742131151259E-4</v>
@@ -8532,7 +8532,7 @@
         <v>0.16</v>
       </c>
       <c r="C10" s="1">
-        <v>4.2565708638638998E-4</v>
+        <v>4.2565708638999999E-4</v>
       </c>
       <c r="D10" s="2">
         <v>4.4771246029995382E-4</v>
@@ -8543,7 +8543,7 @@
         <v>0.18</v>
       </c>
       <c r="C11" s="1">
-        <v>3.7508049653246003E-4</v>
+        <v>3.7508049653000002E-4</v>
       </c>
       <c r="D11" s="2">
         <v>3.5395799204707146E-4</v>
@@ -8554,7 +8554,7 @@
         <v>0.2</v>
       </c>
       <c r="C12" s="1">
-        <v>3.4255343474772599E-4</v>
+        <v>3.4255343475E-4</v>
       </c>
       <c r="D12" s="2">
         <v>3.5254706745035946E-4</v>
@@ -8565,7 +8565,7 @@
         <v>0.22</v>
       </c>
       <c r="C13" s="1">
-        <v>3.2670013629702198E-4</v>
+        <v>3.2670013630000001E-4</v>
       </c>
       <c r="D13" s="2">
         <v>3.298278315924108E-4</v>
@@ -8576,7 +8576,7 @@
         <v>0.24</v>
       </c>
       <c r="C14" s="1">
-        <v>2.41424506313815E-4</v>
+        <v>2.4142450630999999E-4</v>
       </c>
       <c r="D14" s="2">
         <v>2.321913925698027E-4</v>
@@ -8587,7 +8587,7 @@
         <v>0.26</v>
       </c>
       <c r="C15" s="1">
-        <v>8.9022144391673195E-5</v>
+        <v>8.9022144392E-5</v>
       </c>
       <c r="D15" s="2">
         <v>8.9158107584808022E-5</v>
@@ -8598,7 +8598,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C16" s="1">
-        <v>-1.1288400113530899E-5</v>
+        <v>-1.1288400114E-5</v>
       </c>
       <c r="D16" s="2">
         <v>2.168294940929627E-6</v>
@@ -8609,7 +8609,7 @@
         <v>0.3</v>
       </c>
       <c r="C17" s="1">
-        <v>1.20507036561655E-5</v>
+        <v>1.2050703656E-5</v>
       </c>
       <c r="D17" s="2">
         <v>-8.9063195218841429E-7</v>
@@ -8620,7 +8620,7 @@
         <v>0.32</v>
       </c>
       <c r="C18" s="1">
-        <v>-1.5821610493380099E-4</v>
+        <v>-1.5821610493E-4</v>
       </c>
       <c r="D18" s="2">
         <v>-1.6193460032809526E-4</v>
@@ -8631,7 +8631,7 @@
         <v>0.34</v>
       </c>
       <c r="C19" s="1">
-        <v>-1.0667934021910601E-4</v>
+        <v>-1.0667934022E-4</v>
       </c>
       <c r="D19" s="2">
         <v>-8.5862462583463639E-5</v>
@@ -8642,7 +8642,7 @@
         <v>0.36</v>
       </c>
       <c r="C20" s="1">
-        <v>-1.5665199662402799E-4</v>
+        <v>-1.5665199661999999E-4</v>
       </c>
       <c r="D20" s="2">
         <v>-1.7342391947750002E-4</v>
@@ -8653,7 +8653,7 @@
         <v>0.38</v>
       </c>
       <c r="C21" s="1">
-        <v>-2.4665033527379398E-4</v>
+        <v>-2.4665033526999997E-4</v>
       </c>
       <c r="D21" s="2">
         <v>-2.5734261726029217E-4</v>
@@ -8664,7 +8664,7 @@
         <v>0.4</v>
       </c>
       <c r="C22" s="1">
-        <v>-1.7493553342586601E-4</v>
+        <v>-1.7493553342999999E-4</v>
       </c>
       <c r="D22" s="2">
         <v>-1.3361214951146394E-4</v>
@@ -8675,7 +8675,7 @@
         <v>0.42</v>
       </c>
       <c r="C23" s="1">
-        <v>-2.5144140981187999E-4</v>
+        <v>-2.5144140980999999E-4</v>
       </c>
       <c r="D23" s="2">
         <v>-2.9738247394561768E-4</v>
@@ -8686,7 +8686,7 @@
         <v>0.44</v>
       </c>
       <c r="C24" s="1">
-        <v>-3.5298179625138502E-4</v>
+        <v>-3.5298179625E-4</v>
       </c>
       <c r="D24" s="2">
         <v>-3.3809564774855971E-4</v>
@@ -8697,7 +8697,7 @@
         <v>0.46</v>
       </c>
       <c r="C25" s="1">
-        <v>-3.39496252143327E-4</v>
+        <v>-3.3949625214000002E-4</v>
       </c>
       <c r="D25" s="2">
         <v>-3.125348303001374E-4</v>
@@ -8708,7 +8708,7 @@
         <v>0.48</v>
       </c>
       <c r="C26" s="1">
-        <v>-1.8053840916660099E-4</v>
+        <v>-1.8053840916999999E-4</v>
       </c>
       <c r="D26" s="2">
         <v>-2.1544902119785547E-4</v>
@@ -8719,7 +8719,7 @@
         <v>0.5</v>
       </c>
       <c r="C27" s="1">
-        <v>-3.24470263182911E-4</v>
+        <v>-3.2447026318000003E-4</v>
       </c>
       <c r="D27" s="2">
         <v>-3.2480829395353794E-4</v>
@@ -8730,7 +8730,7 @@
         <v>0.52</v>
       </c>
       <c r="C28" s="1">
-        <v>-2.4564620342800401E-4</v>
+        <v>-2.4564620342999998E-4</v>
       </c>
       <c r="D28" s="2">
         <v>-2.0584287995006889E-4</v>
@@ -8741,7 +8741,7 @@
         <v>0.54</v>
       </c>
       <c r="C29" s="1">
-        <v>-1.17180217720186E-4</v>
+        <v>-1.1718021772E-4</v>
       </c>
       <c r="D29" s="2">
         <v>-1.5212703146971762E-4</v>
@@ -8752,7 +8752,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="C30" s="1">
-        <v>-1.25143144115509E-4</v>
+        <v>-1.2514314412000001E-4</v>
       </c>
       <c r="D30" s="2">
         <v>-1.4126622409094125E-4</v>
@@ -8763,7 +8763,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="C31" s="1">
-        <v>-8.5507930143871301E-5</v>
+        <v>-8.5507930143999996E-5</v>
       </c>
       <c r="D31" s="2">
         <v>-2.0241963284206577E-5</v>
@@ -8774,7 +8774,7 @@
         <v>0.6</v>
       </c>
       <c r="C32" s="1">
-        <v>6.5430723884757098E-5</v>
+        <v>6.5430723884999999E-5</v>
       </c>
       <c r="D32" s="2">
         <v>1.7974599586523254E-6</v>
@@ -8785,7 +8785,7 @@
         <v>0.62</v>
       </c>
       <c r="C33" s="1">
-        <v>8.4641235926317604E-5</v>
+        <v>8.4641235926E-5</v>
       </c>
       <c r="D33" s="2">
         <v>9.7344935056753457E-5</v>
@@ -8796,7 +8796,7 @@
         <v>0.64</v>
       </c>
       <c r="C34" s="1">
-        <v>-4.5508125897811699E-5</v>
+        <v>-4.5508125897999998E-5</v>
       </c>
       <c r="D34" s="2">
         <v>-1.3395186215348076E-5</v>
@@ -8807,7 +8807,7 @@
         <v>0.66</v>
       </c>
       <c r="C35" s="1">
-        <v>-8.0870313337462303E-5</v>
+        <v>-8.0870313336999999E-5</v>
       </c>
       <c r="D35" s="2">
         <v>-1.1212128447368741E-4</v>
@@ -8818,7 +8818,7 @@
         <v>0.68</v>
       </c>
       <c r="C36" s="1">
-        <v>-2.30394422056088E-4</v>
+        <v>-2.3039442205999999E-4</v>
       </c>
       <c r="D36" s="2">
         <v>-2.4329897132702172E-4</v>
@@ -8829,7 +8829,7 @@
         <v>0.7</v>
       </c>
       <c r="C37" s="1">
-        <v>-3.6963034991924898E-4</v>
+        <v>-3.6963034992000001E-4</v>
       </c>
       <c r="D37" s="2">
         <v>-3.1622400274500251E-4</v>
@@ -8840,7 +8840,7 @@
         <v>0.72</v>
       </c>
       <c r="C38" s="1">
-        <v>-3.03715015551874E-4</v>
+        <v>-3.0371501555000001E-4</v>
       </c>
       <c r="D38" s="2">
         <v>-3.4774999949149787E-4</v>
@@ -8851,7 +8851,7 @@
         <v>0.74</v>
       </c>
       <c r="C39" s="1">
-        <v>-1.78253194217449E-4</v>
+        <v>-1.7825319421999999E-4</v>
       </c>
       <c r="D39" s="2">
         <v>-1.7970340559259057E-4</v>
@@ -8862,7 +8862,7 @@
         <v>0.76</v>
       </c>
       <c r="C40" s="1">
-        <v>-3.75262314572919E-4</v>
+        <v>-3.7526231457E-4</v>
       </c>
       <c r="D40" s="2">
         <v>-3.39272286510095E-4</v>
@@ -8873,7 +8873,7 @@
         <v>0.78</v>
       </c>
       <c r="C41" s="1">
-        <v>-3.0022828697431902E-4</v>
+        <v>-3.0022828696999999E-4</v>
       </c>
       <c r="D41" s="2">
         <v>-3.3232505666092038E-4</v>
@@ -8884,7 +8884,7 @@
         <v>0.8</v>
       </c>
       <c r="C42" s="1">
-        <v>-2.26260943685111E-4</v>
+        <v>-2.2626094369E-4</v>
       </c>
       <c r="D42" s="2">
         <v>-2.2083500516600907E-4</v>
@@ -8895,7 +8895,7 @@
         <v>0.82</v>
       </c>
       <c r="C43" s="1">
-        <v>-1.5458784939863601E-4</v>
+        <v>-1.5458784939999999E-4</v>
       </c>
       <c r="D43" s="2">
         <v>-1.3962248340249062E-4</v>
@@ -8906,7 +8906,7 @@
         <v>0.84</v>
       </c>
       <c r="C44" s="1">
-        <v>2.1872454577354E-5</v>
+        <v>2.1872454577000001E-5</v>
       </c>
       <c r="D44" s="2">
         <v>1.7839689462562092E-5</v>
@@ -8917,7 +8917,7 @@
         <v>0.86</v>
       </c>
       <c r="C45" s="1">
-        <v>1.33176754678672E-4</v>
+        <v>1.3317675468000001E-4</v>
       </c>
       <c r="D45" s="2">
         <v>1.050090795615688E-4</v>
@@ -8928,7 +8928,7 @@
         <v>0.88</v>
       </c>
       <c r="C46" s="1">
-        <v>2.03183683180048E-4</v>
+        <v>2.0318368317999999E-4</v>
       </c>
       <c r="D46" s="2">
         <v>2.5227069272659719E-4</v>
@@ -8939,7 +8939,7 @@
         <v>0.9</v>
       </c>
       <c r="C47" s="1">
-        <v>3.4369285747564099E-4</v>
+        <v>3.4369285748000003E-4</v>
       </c>
       <c r="D47" s="2">
         <v>3.0612674891017377E-4</v>
@@ -8950,7 +8950,7 @@
         <v>0.92</v>
       </c>
       <c r="C48" s="1">
-        <v>3.9122743740748302E-4</v>
+        <v>3.9122743741E-4</v>
       </c>
       <c r="D48" s="2">
         <v>3.9427878800779581E-4</v>
@@ -8961,7 +8961,7 @@
         <v>0.94</v>
       </c>
       <c r="C49" s="1">
-        <v>3.67474172432036E-4</v>
+        <v>3.6747417242999998E-4</v>
       </c>
       <c r="D49" s="2">
         <v>3.8611784111708403E-4</v>
@@ -8972,7 +8972,7 @@
         <v>0.96</v>
       </c>
       <c r="C50" s="1">
-        <v>3.9907058215690001E-4</v>
+        <v>3.9907058216000002E-4</v>
       </c>
       <c r="D50" s="2">
         <v>3.8990835309959948E-4</v>
@@ -8983,7 +8983,7 @@
         <v>0.98</v>
       </c>
       <c r="C51" s="1">
-        <v>3.3644182807315799E-4</v>
+        <v>3.3644182806999998E-4</v>
       </c>
       <c r="D51" s="2">
         <v>3.1457055592909455E-4</v>
@@ -8994,7 +8994,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="1">
-        <v>2.0245140857233E-4</v>
+        <v>2.0245140856999999E-4</v>
       </c>
       <c r="D52" s="2">
         <v>2.4034052330534905E-4</v>
@@ -9011,7 +9011,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C52"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9053,7 +9053,7 @@
         <v>0.02</v>
       </c>
       <c r="C3" s="1">
-        <v>-1.3155320561197801E-4</v>
+        <v>-1.3155320560999999E-4</v>
       </c>
       <c r="D3" s="3">
         <v>-1.3450428377836943E-4</v>
@@ -9066,7 +9066,7 @@
         <v>0.04</v>
       </c>
       <c r="C4" s="1">
-        <v>-2.6245653100916703E-4</v>
+        <v>-2.6245653101000002E-4</v>
       </c>
       <c r="D4" s="3">
         <v>-2.6024467661045492E-4</v>
@@ -9079,7 +9079,7 @@
         <v>0.06</v>
       </c>
       <c r="C5" s="1">
-        <v>-4.39055635103997E-4</v>
+        <v>-4.3905563509999998E-4</v>
       </c>
       <c r="D5" s="3">
         <v>-4.3743333662860096E-4</v>
@@ -9092,7 +9092,7 @@
         <v>0.08</v>
       </c>
       <c r="C6" s="1">
-        <v>-4.2128927272901302E-4</v>
+        <v>-4.2128927273000003E-4</v>
       </c>
       <c r="D6" s="3">
         <v>-4.2370118899270892E-4</v>
@@ -9105,7 +9105,7 @@
         <v>0.1</v>
       </c>
       <c r="C7" s="1">
-        <v>-5.1340107293592501E-4</v>
+        <v>-5.1340107293999999E-4</v>
       </c>
       <c r="D7" s="3">
         <v>-5.0951895536854863E-4</v>
@@ -9118,7 +9118,7 @@
         <v>0.12</v>
       </c>
       <c r="C8" s="1">
-        <v>-5.1411592024418705E-4</v>
+        <v>-5.1411592023999997E-4</v>
       </c>
       <c r="D8" s="3">
         <v>-5.2168435649946332E-4</v>
@@ -9131,7 +9131,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>-4.4351862609197102E-4</v>
+        <v>-4.4351862609E-4</v>
       </c>
       <c r="D9" s="3">
         <v>-4.2699312325567007E-4</v>
@@ -9144,7 +9144,7 @@
         <v>0.16</v>
       </c>
       <c r="C10" s="1">
-        <v>-4.6881857683435E-4</v>
+        <v>-4.6881857683000002E-4</v>
       </c>
       <c r="D10" s="3">
         <v>-4.9319770187139511E-4</v>
@@ -9157,7 +9157,7 @@
         <v>0.18</v>
       </c>
       <c r="C11" s="1">
-        <v>-4.1223955359649699E-4</v>
+        <v>-4.122395536E-4</v>
       </c>
       <c r="D11" s="3">
         <v>-3.8923948886804283E-4</v>
@@ -9170,7 +9170,7 @@
         <v>0.2</v>
       </c>
       <c r="C12" s="1">
-        <v>-3.7706333911850001E-4</v>
+        <v>-3.7706333912E-4</v>
       </c>
       <c r="D12" s="3">
         <v>-3.8831602432765067E-4</v>
@@ -9183,7 +9183,7 @@
         <v>0.22</v>
       </c>
       <c r="C13" s="1">
-        <v>-3.59649607878216E-4</v>
+        <v>-3.5964960788E-4</v>
       </c>
       <c r="D13" s="3">
         <v>-3.6283349618315697E-4</v>
@@ -9196,7 +9196,7 @@
         <v>0.24</v>
       </c>
       <c r="C14" s="1">
-        <v>-2.65251039606217E-4</v>
+        <v>-2.6525103961E-4</v>
       </c>
       <c r="D14" s="3">
         <v>-2.5572555023245513E-4</v>
@@ -9209,7 +9209,7 @@
         <v>0.26</v>
       </c>
       <c r="C15" s="1">
-        <v>-9.7836765208018602E-5</v>
+        <v>-9.7836765207999995E-5</v>
       </c>
       <c r="D15" s="3">
         <v>-9.8025186161976308E-5</v>
@@ -9222,7 +9222,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C16" s="1">
-        <v>1.20179728888188E-5</v>
+        <v>1.2017972889E-5</v>
       </c>
       <c r="D16" s="3">
         <v>-2.4380956347158644E-6</v>
@@ -9235,7 +9235,7 @@
         <v>0.3</v>
       </c>
       <c r="C17" s="1">
-        <v>-1.29727461700267E-5</v>
+        <v>-1.297274617E-5</v>
       </c>
       <c r="D17" s="3">
         <v>1.0066806908071158E-6</v>
@@ -9248,7 +9248,7 @@
         <v>0.32</v>
       </c>
       <c r="C18" s="1">
-        <v>1.7460463665868199E-4</v>
+        <v>1.7460463666E-4</v>
       </c>
       <c r="D18" s="3">
         <v>1.7818664491642267E-4</v>
@@ -9261,7 +9261,7 @@
         <v>0.34</v>
       </c>
       <c r="C19" s="1">
-        <v>1.16044252651298E-4</v>
+        <v>1.1604425265E-4</v>
       </c>
       <c r="D19" s="3">
         <v>9.4646842626389116E-5</v>
@@ -9274,7 +9274,7 @@
         <v>0.36</v>
       </c>
       <c r="C20" s="1">
-        <v>1.7340769698256901E-4</v>
+        <v>1.7340769697999999E-4</v>
       </c>
       <c r="D20" s="3">
         <v>1.9062290084548295E-4</v>
@@ -9287,7 +9287,7 @@
         <v>0.38</v>
       </c>
       <c r="C21" s="1">
-        <v>2.7113084440033201E-4</v>
+        <v>2.7113084440000002E-4</v>
       </c>
       <c r="D21" s="3">
         <v>2.8361176373437047E-4</v>
@@ -9300,7 +9300,7 @@
         <v>0.4</v>
       </c>
       <c r="C22" s="1">
-        <v>1.9135082754011699E-4</v>
+        <v>1.9135082754E-4</v>
       </c>
       <c r="D22" s="3">
         <v>1.4668416406493634E-4</v>
@@ -9313,7 +9313,7 @@
         <v>0.42</v>
       </c>
       <c r="C23" s="1">
-        <v>2.7796008272797898E-4</v>
+        <v>2.7796008272999999E-4</v>
       </c>
       <c r="D23" s="3">
         <v>3.2762906630523503E-4</v>
@@ -9326,7 +9326,7 @@
         <v>0.44</v>
       </c>
       <c r="C24" s="1">
-        <v>3.8791087583488101E-4</v>
+        <v>3.8791087582999999E-4</v>
       </c>
       <c r="D24" s="3">
         <v>3.7192960735410452E-4</v>
@@ -9339,7 +9339,7 @@
         <v>0.46</v>
       </c>
       <c r="C25" s="1">
-        <v>3.7288369117749898E-4</v>
+        <v>3.7288369118000002E-4</v>
       </c>
       <c r="D25" s="3">
         <v>3.4413521643728018E-4</v>
@@ -9352,7 +9352,7 @@
         <v>0.48</v>
       </c>
       <c r="C26" s="1">
-        <v>1.9954927064859301E-4</v>
+        <v>1.9954927065000001E-4</v>
       </c>
       <c r="D26" s="3">
         <v>2.370825968682766E-4</v>
@@ -9365,7 +9365,7 @@
         <v>0.5</v>
       </c>
       <c r="C27" s="1">
-        <v>3.5775998734413302E-4</v>
+        <v>3.5775998733999999E-4</v>
       </c>
       <c r="D27" s="3">
         <v>3.5744241904467344E-4</v>
@@ -9378,7 +9378,7 @@
         <v>0.52</v>
       </c>
       <c r="C28" s="1">
-        <v>2.6855622798739598E-4</v>
+        <v>2.6855622799000002E-4</v>
       </c>
       <c r="D28" s="3">
         <v>2.2680210531689227E-4</v>
@@ -9391,7 +9391,7 @@
         <v>0.54</v>
       </c>
       <c r="C29" s="1">
-        <v>1.3070859808049799E-4</v>
+        <v>1.3070859807999999E-4</v>
       </c>
       <c r="D29" s="3">
         <v>1.6704924928490072E-4</v>
@@ -9404,7 +9404,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="C30" s="1">
-        <v>1.3819409907223001E-4</v>
+        <v>1.3819409906999999E-4</v>
       </c>
       <c r="D30" s="3">
         <v>1.5599673497490585E-4</v>
@@ -9417,7 +9417,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="C31" s="1">
-        <v>9.2178750756829599E-5</v>
+        <v>9.2178750756999995E-5</v>
       </c>
       <c r="D31" s="3">
         <v>2.1714520698878914E-5</v>
@@ -9430,7 +9430,7 @@
         <v>0.6</v>
       </c>
       <c r="C32" s="1">
-        <v>-7.0020014400800102E-5</v>
+        <v>-7.0020014401000002E-5</v>
       </c>
       <c r="D32" s="3">
         <v>-1.4015487295182538E-6</v>
@@ -9443,7 +9443,7 @@
         <v>0.62</v>
       </c>
       <c r="C33" s="1">
-        <v>-9.3287335369911193E-5</v>
+        <v>-9.3287335370000003E-5</v>
       </c>
       <c r="D33" s="3">
         <v>-1.0770353401312605E-4</v>
@@ -9456,7 +9456,7 @@
         <v>0.64</v>
       </c>
       <c r="C34" s="1">
-        <v>4.8855994302484801E-5</v>
+        <v>4.8855994302E-5</v>
       </c>
       <c r="D34" s="3">
         <v>1.5221470675896853E-5</v>
@@ -9469,7 +9469,7 @@
         <v>0.66</v>
       </c>
       <c r="C35" s="1">
-        <v>9.0281192000354606E-5</v>
+        <v>9.0281192000000004E-5</v>
       </c>
       <c r="D35" s="3">
         <v>1.2300901289563626E-4</v>
@@ -9482,7 +9482,7 @@
         <v>0.68</v>
       </c>
       <c r="C36" s="1">
-        <v>2.5366775567982699E-4</v>
+        <v>2.5366775567999998E-4</v>
       </c>
       <c r="D36" s="3">
         <v>2.6811697171069682E-4</v>
@@ -9495,7 +9495,7 @@
         <v>0.7</v>
       </c>
       <c r="C37" s="1">
-        <v>4.0559452323953097E-4</v>
+        <v>4.0559452324E-4</v>
       </c>
       <c r="D37" s="3">
         <v>3.4782083821482956E-4</v>
@@ -9508,7 +9508,7 @@
         <v>0.72</v>
       </c>
       <c r="C38" s="1">
-        <v>3.3515792970332901E-4</v>
+        <v>3.3515792970000003E-4</v>
       </c>
       <c r="D38" s="3">
         <v>3.8294005207717419E-4</v>
@@ -9521,7 +9521,7 @@
         <v>0.74</v>
       </c>
       <c r="C39" s="1">
-        <v>1.96449910660872E-4</v>
+        <v>1.9644991066000001E-4</v>
       </c>
       <c r="D39" s="3">
         <v>1.9772330415435135E-4</v>
@@ -9534,7 +9534,7 @@
         <v>0.76</v>
       </c>
       <c r="C40" s="1">
-        <v>4.11885046980013E-4</v>
+        <v>4.1188504697999999E-4</v>
       </c>
       <c r="D40" s="3">
         <v>3.7331707426346838E-4</v>
@@ -9547,7 +9547,7 @@
         <v>0.78</v>
       </c>
       <c r="C41" s="1">
-        <v>3.3098013364145498E-4</v>
+        <v>3.3098013363999998E-4</v>
       </c>
       <c r="D41" s="3">
         <v>3.6609722883440554E-4</v>
@@ -9560,7 +9560,7 @@
         <v>0.8</v>
       </c>
       <c r="C42" s="1">
-        <v>2.4929381057810099E-4</v>
+        <v>2.4929381058000003E-4</v>
       </c>
       <c r="D42" s="3">
         <v>2.4261762155219913E-4</v>
@@ -9573,7 +9573,7 @@
         <v>0.82</v>
       </c>
       <c r="C43" s="1">
-        <v>1.6871878093335899E-4</v>
+        <v>1.6871878092999999E-4</v>
       </c>
       <c r="D43" s="3">
         <v>1.5422687283717096E-4</v>
@@ -9586,7 +9586,7 @@
         <v>0.84</v>
       </c>
       <c r="C44" s="1">
-        <v>-2.2934694735079199E-5</v>
+        <v>-2.2934694734999998E-5</v>
       </c>
       <c r="D44" s="3">
         <v>-2.0235414922353812E-5</v>
@@ -9599,7 +9599,7 @@
         <v>0.86</v>
       </c>
       <c r="C45" s="1">
-        <v>-1.4693721827724001E-4</v>
+        <v>-1.4693721828000001E-4</v>
       </c>
       <c r="D45" s="3">
         <v>-1.1496567458380014E-4</v>
@@ -9612,7 +9612,7 @@
         <v>0.88</v>
       </c>
       <c r="C46" s="1">
-        <v>-2.2451735579550699E-4</v>
+        <v>-2.2451735580000001E-4</v>
       </c>
       <c r="D46" s="3">
         <v>-2.7827284066006541E-4</v>
@@ -9625,7 +9625,7 @@
         <v>0.9</v>
       </c>
       <c r="C47" s="1">
-        <v>-3.7731893851486399E-4</v>
+        <v>-3.7731893850999999E-4</v>
       </c>
       <c r="D47" s="3">
         <v>-3.3638524473644793E-4</v>
@@ -9638,7 +9638,7 @@
         <v>0.92</v>
       </c>
       <c r="C48" s="1">
-        <v>-4.3062093082024802E-4</v>
+        <v>-4.3062093082000001E-4</v>
       </c>
       <c r="D48" s="3">
         <v>-4.3448357610031962E-4</v>
@@ -9651,7 +9651,7 @@
         <v>0.94</v>
       </c>
       <c r="C49" s="1">
-        <v>-4.0505380340296899E-4</v>
+        <v>-4.0505380340000001E-4</v>
       </c>
       <c r="D49" s="3">
         <v>-4.2455672519281507E-4</v>
@@ -9664,7 +9664,7 @@
         <v>0.96</v>
       </c>
       <c r="C50" s="1">
-        <v>-4.3857356766224901E-4</v>
+        <v>-4.3857356766E-4</v>
       </c>
       <c r="D50" s="3">
         <v>-4.295266408007592E-4</v>
@@ -9677,7 +9677,7 @@
         <v>0.98</v>
       </c>
       <c r="C51" s="1">
-        <v>-3.6933564130066002E-4</v>
+        <v>-3.6933564130000002E-4</v>
       </c>
       <c r="D51" s="3">
         <v>-3.4596212208271027E-4</v>
@@ -9690,7 +9690,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="1">
-        <v>-2.2402691627754299E-4</v>
+        <v>-2.2402691628000001E-4</v>
       </c>
       <c r="D52" s="3">
         <v>-2.6474200421944261E-4</v>
@@ -9709,7 +9709,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D52"/>
+      <selection activeCell="C2" sqref="C2:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9749,7 +9749,7 @@
         <v>0.02</v>
       </c>
       <c r="C3" s="1">
-        <v>9.6823785818908701E-5</v>
+        <v>9.6823785819000004E-5</v>
       </c>
       <c r="D3" s="4">
         <v>9.9399680038914084E-5</v>
@@ -9760,7 +9760,7 @@
         <v>0.04</v>
       </c>
       <c r="C4" s="1">
-        <v>1.9452948133006601E-4</v>
+        <v>1.9452948133000001E-4</v>
       </c>
       <c r="D4" s="4">
         <v>1.9260639965068549E-4</v>
@@ -9771,7 +9771,7 @@
         <v>0.06</v>
       </c>
       <c r="C5" s="1">
-        <v>3.24366282599759E-4</v>
+        <v>3.2436628260000002E-4</v>
       </c>
       <c r="D5" s="4">
         <v>3.2328194356523454E-4</v>
@@ -9782,7 +9782,7 @@
         <v>0.08</v>
       </c>
       <c r="C6" s="1">
-        <v>3.1193643839935102E-4</v>
+        <v>3.1193643840000002E-4</v>
       </c>
       <c r="D6" s="4">
         <v>3.1374386162497103E-4</v>
@@ -9793,7 +9793,7 @@
         <v>0.1</v>
       </c>
       <c r="C7" s="1">
-        <v>3.7904682797665102E-4</v>
+        <v>3.7904682798000001E-4</v>
       </c>
       <c r="D7" s="4">
         <v>3.7622876698151231E-4</v>
@@ -9804,7 +9804,7 @@
         <v>0.12</v>
       </c>
       <c r="C8" s="1">
-        <v>3.8076426199244999E-4</v>
+        <v>3.8076426199000002E-4</v>
       </c>
       <c r="D8" s="4">
         <v>3.8659642450511456E-4</v>
@@ -9815,7 +9815,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>3.2826064131508597E-4</v>
+        <v>3.2826064132000001E-4</v>
       </c>
       <c r="D9" s="4">
         <v>3.1490906258113682E-4</v>
@@ -9826,7 +9826,7 @@
         <v>0.16</v>
       </c>
       <c r="C10" s="1">
-        <v>3.4569958433303501E-4</v>
+        <v>3.4569958433000001E-4</v>
       </c>
       <c r="D10" s="4">
         <v>3.6559527507051826E-4</v>
@@ -9837,7 +9837,7 @@
         <v>0.18</v>
       </c>
       <c r="C11" s="1">
-        <v>3.0626680892656698E-4</v>
+        <v>3.0626680893E-4</v>
       </c>
       <c r="D11" s="4">
         <v>2.8714555082842708E-4</v>
@@ -9848,7 +9848,7 @@
         <v>0.2</v>
       </c>
       <c r="C12" s="1">
-        <v>2.78629362269187E-4</v>
+        <v>2.7862936226999999E-4</v>
       </c>
       <c r="D12" s="4">
         <v>2.877207298297435E-4</v>
@@ -9859,7 +9859,7 @@
         <v>0.22</v>
       </c>
       <c r="C13" s="1">
-        <v>2.6513813801608602E-4</v>
+        <v>2.6513813801999999E-4</v>
       </c>
       <c r="D13" s="4">
         <v>2.6796458405442536E-4</v>
@@ -9870,7 +9870,7 @@
         <v>0.24</v>
       </c>
       <c r="C14" s="1">
-        <v>1.97924699871721E-4</v>
+        <v>1.9792469986999999E-4</v>
       </c>
       <c r="D14" s="4">
         <v>1.8939332221634686E-4</v>
@@ -9881,7 +9881,7 @@
         <v>0.26</v>
       </c>
       <c r="C15" s="1">
-        <v>7.1949135788149603E-5</v>
+        <v>7.1949135787999997E-5</v>
       </c>
       <c r="D15" s="4">
         <v>7.2335184086114168E-5</v>
@@ -9892,7 +9892,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C16" s="1">
-        <v>-1.0170033563830999E-5</v>
+        <v>-1.0170033563999999E-5</v>
       </c>
       <c r="D16" s="4">
         <v>1.834958538893261E-6</v>
@@ -9903,7 +9903,7 @@
         <v>0.3</v>
       </c>
       <c r="C17" s="1">
-        <v>1.11344587423645E-5</v>
+        <v>1.1134458741999999E-5</v>
       </c>
       <c r="D17" s="4">
         <v>-7.1988336003414588E-7</v>
@@ -9914,7 +9914,7 @@
         <v>0.32</v>
       </c>
       <c r="C18" s="1">
-        <v>-1.2868967620293899E-4</v>
+        <v>-1.2868967619999999E-4</v>
       </c>
       <c r="D18" s="4">
         <v>-1.3175148342270404E-4</v>
@@ -9925,7 +9925,7 @@
         <v>0.34</v>
       </c>
       <c r="C19" s="1">
-        <v>-8.8927223502011194E-5</v>
+        <v>-8.8927223502E-5</v>
       </c>
       <c r="D19" s="4">
         <v>-7.0213522121775895E-5</v>
@@ -9936,7 +9936,7 @@
         <v>0.36</v>
       </c>
       <c r="C20" s="1">
-        <v>-1.2519983724650199E-4</v>
+        <v>-1.2519983725000001E-4</v>
       </c>
       <c r="D20" s="4">
         <v>-1.4050018216948956E-4</v>
@@ -9947,7 +9947,7 @@
         <v>0.38</v>
       </c>
       <c r="C21" s="1">
-        <v>-2.0095216636198499E-4</v>
+        <v>-2.0095216636E-4</v>
       </c>
       <c r="D21" s="4">
         <v>-2.1043494052719325E-4</v>
@@ -9958,7 +9958,7 @@
         <v>0.4</v>
       </c>
       <c r="C22" s="1">
-        <v>-1.4521088709889299E-4</v>
+        <v>-1.4521088710000001E-4</v>
       </c>
       <c r="D22" s="4">
         <v>-1.0775205009849742E-4</v>
@@ -9969,7 +9969,7 @@
         <v>0.42</v>
       </c>
       <c r="C23" s="1">
-        <v>-2.0113172237898699E-4</v>
+        <v>-2.0113172238000001E-4</v>
       </c>
       <c r="D23" s="4">
         <v>-2.4287126143462956E-4</v>
@@ -9980,7 +9980,7 @@
         <v>0.44</v>
       </c>
       <c r="C24" s="1">
-        <v>-2.8820206557646699E-4</v>
+        <v>-2.8820206558000002E-4</v>
       </c>
       <c r="D24" s="4">
         <v>-2.7471035718917847E-4</v>
@@ -9991,7 +9991,7 @@
         <v>0.46</v>
       </c>
       <c r="C25" s="1">
-        <v>-2.7946578229793499E-4</v>
+        <v>-2.7946578230000002E-4</v>
       </c>
       <c r="D25" s="4">
         <v>-2.5470845866948366E-4</v>
@@ -10002,7 +10002,7 @@
         <v>0.48</v>
       </c>
       <c r="C26" s="1">
-        <v>-1.4303031226309799E-4</v>
+        <v>-1.4303031225999999E-4</v>
       </c>
       <c r="D26" s="4">
         <v>-1.753001706674695E-4</v>
@@ -10013,7 +10013,7 @@
         <v>0.5</v>
       </c>
       <c r="C27" s="1">
-        <v>-2.6444125383899997E-4</v>
+        <v>-2.6444125383999999E-4</v>
       </c>
       <c r="D27" s="4">
         <v>-2.6412002625875175E-4</v>
@@ -10024,7 +10024,7 @@
         <v>0.52</v>
       </c>
       <c r="C28" s="1">
-        <v>-2.0412311582438701E-4</v>
+        <v>-2.0412311582E-4</v>
       </c>
       <c r="D28" s="4">
         <v>-1.6831650282256305E-4</v>
@@ -10035,7 +10035,7 @@
         <v>0.54</v>
       </c>
       <c r="C29" s="1">
-        <v>-9.0752879684884995E-5</v>
+        <v>-9.0752879685000002E-5</v>
       </c>
       <c r="D29" s="4">
         <v>-1.2262792733963579E-4</v>
@@ -10046,7 +10046,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="C30" s="1">
-        <v>-1.02088996520126E-4</v>
+        <v>-1.0208899652E-4</v>
       </c>
       <c r="D30" s="4">
         <v>-1.165156572824344E-4</v>
@@ -10057,7 +10057,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="C31" s="1">
-        <v>-7.4175323697366302E-5</v>
+        <v>-7.4175323697000004E-5</v>
       </c>
       <c r="D31" s="4">
         <v>-1.4804232705500908E-5</v>
@@ -10068,7 +10068,7 @@
         <v>0.6</v>
       </c>
       <c r="C32" s="1">
-        <v>5.7986910108214699E-5</v>
+        <v>5.7986910108E-5</v>
       </c>
       <c r="D32" s="4">
         <v>-2.2482090855646675E-7</v>
@@ -10079,7 +10079,7 @@
         <v>0.62</v>
       </c>
       <c r="C33" s="1">
-        <v>6.9102519754245194E-5</v>
+        <v>6.9102519754000001E-5</v>
       </c>
       <c r="D33" s="4">
         <v>8.0853453255258501E-5</v>
@@ -10090,7 +10090,7 @@
         <v>0.64</v>
       </c>
       <c r="C34" s="1">
-        <v>-4.1812274462979103E-5</v>
+        <v>-4.1812274463000001E-5</v>
       </c>
       <c r="D34" s="4">
         <v>-1.2264481483725831E-5</v>
@@ -10101,7 +10101,7 @@
         <v>0.66</v>
       </c>
       <c r="C35" s="1">
-        <v>-6.1261232321559297E-5</v>
+        <v>-6.1261232321999998E-5</v>
       </c>
       <c r="D35" s="4">
         <v>-9.015136311063543E-5</v>
@@ -10112,7 +10112,7 @@
         <v>0.68</v>
       </c>
       <c r="C36" s="1">
-        <v>-1.87143572282679E-4</v>
+        <v>-1.8714357227999999E-4</v>
       </c>
       <c r="D36" s="4">
         <v>-1.9892228010576218E-4</v>
@@ -10123,7 +10123,7 @@
         <v>0.7</v>
       </c>
       <c r="C37" s="1">
-        <v>-3.0593752111525798E-4</v>
+        <v>-3.0593752112000001E-4</v>
       </c>
       <c r="D37" s="4">
         <v>-2.5679398095235229E-4</v>
@@ -10134,7 +10134,7 @@
         <v>0.72</v>
       </c>
       <c r="C38" s="1">
-        <v>-2.42902103157234E-4</v>
+        <v>-2.4290210315999999E-4</v>
       </c>
       <c r="D38" s="4">
         <v>-2.8349869535304606E-4</v>
@@ -10145,7 +10145,7 @@
         <v>0.74</v>
       </c>
       <c r="C39" s="1">
-        <v>-1.44735742922464E-4</v>
+        <v>-1.4473574291999999E-4</v>
       </c>
       <c r="D39" s="4">
         <v>-1.4617459964938462E-4</v>
@@ -10156,7 +10156,7 @@
         <v>0.76</v>
       </c>
       <c r="C40" s="1">
-        <v>-3.0918709031425699E-4</v>
+        <v>-3.0918709030999998E-4</v>
       </c>
       <c r="D40" s="4">
         <v>-2.7573906118050218E-4</v>
@@ -10167,7 +10167,7 @@
         <v>0.78</v>
       </c>
       <c r="C41" s="1">
-        <v>-2.4190278452667E-4</v>
+        <v>-2.4190278452999999E-4</v>
       </c>
       <c r="D41" s="4">
         <v>-2.7153239352628589E-4</v>
@@ -10178,7 +10178,7 @@
         <v>0.8</v>
       </c>
       <c r="C42" s="1">
-        <v>-1.83009306116145E-4</v>
+        <v>-1.8300930611999999E-4</v>
       </c>
       <c r="D42" s="4">
         <v>-1.7835770267993212E-4</v>
@@ -10189,7 +10189,7 @@
         <v>0.82</v>
       </c>
       <c r="C43" s="1">
-        <v>-1.2929349568727299E-4</v>
+        <v>-1.2929349569E-4</v>
       </c>
       <c r="D43" s="4">
         <v>-1.1532887583598495E-4</v>
@@ -10200,7 +10200,7 @@
         <v>0.84</v>
       </c>
       <c r="C44" s="1">
-        <v>1.95755283201146E-5</v>
+        <v>1.957552832E-5</v>
       </c>
       <c r="D44" s="4">
         <v>1.6332189261447638E-5</v>
@@ -10211,7 +10211,7 @@
         <v>0.86</v>
       </c>
       <c r="C45" s="1">
-        <v>1.10204679169671E-4</v>
+        <v>1.1020467917E-4</v>
       </c>
       <c r="D45" s="4">
         <v>8.3641301898751408E-5</v>
@@ -10222,7 +10222,7 @@
         <v>0.88</v>
       </c>
       <c r="C46" s="1">
-        <v>1.61966675144868E-4</v>
+        <v>1.6196667513999999E-4</v>
       </c>
       <c r="D46" s="4">
         <v>2.0713359117507935E-4</v>
@@ -10233,7 +10233,7 @@
         <v>0.9</v>
       </c>
       <c r="C47" s="1">
-        <v>2.81300055475071E-4</v>
+        <v>2.8130005548E-4</v>
       </c>
       <c r="D47" s="4">
         <v>2.4755476624704897E-4</v>
@@ -10244,7 +10244,7 @@
         <v>0.92</v>
       </c>
       <c r="C48" s="1">
-        <v>3.2033651959986802E-4</v>
+        <v>3.2033651960000002E-4</v>
       </c>
       <c r="D48" s="4">
         <v>3.2240847940556705E-4</v>
@@ -10255,7 +10255,7 @@
         <v>0.94</v>
       </c>
       <c r="C49" s="1">
-        <v>2.9598690167949402E-4</v>
+        <v>2.9598690168000001E-4</v>
       </c>
       <c r="D49" s="4">
         <v>3.1308448524214327E-4</v>
@@ -10266,7 +10266,7 @@
         <v>0.96</v>
       </c>
       <c r="C50" s="1">
-        <v>3.26358036271004E-4</v>
+        <v>3.2635803626999998E-4</v>
       </c>
       <c r="D50" s="4">
         <v>3.1838062568567693E-4</v>
@@ -10277,7 +10277,7 @@
         <v>0.98</v>
       </c>
       <c r="C51" s="1">
-        <v>2.7533147446990501E-4</v>
+        <v>2.7533147446999999E-4</v>
       </c>
       <c r="D51" s="4">
         <v>2.5533774169161916E-4</v>
@@ -10288,7 +10288,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="1">
-        <v>1.6224423400277199E-4</v>
+        <v>1.6224423399999999E-4</v>
       </c>
       <c r="D52" s="4">
         <v>1.9613452604971826E-4</v>
@@ -10304,8 +10304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10345,7 +10345,7 @@
         <v>0.02</v>
       </c>
       <c r="C3" s="1">
-        <v>-1.4753592272689799E-5</v>
+        <v>-1.4826400310999999E-5</v>
       </c>
       <c r="D3" s="5">
         <v>-1.5360265024355613E-5</v>
@@ -10356,7 +10356,7 @@
         <v>0.04</v>
       </c>
       <c r="C4" s="1">
-        <v>-2.9956145830299001E-5</v>
+        <v>-3.0224790158000002E-5</v>
       </c>
       <c r="D4" s="5">
         <v>-2.9692562748095952E-5</v>
@@ -10367,7 +10367,7 @@
         <v>0.06</v>
       </c>
       <c r="C5" s="1">
-        <v>-5.0302464035789097E-5</v>
+        <v>-4.9999260031000001E-5</v>
       </c>
       <c r="D5" s="5">
         <v>-4.9952668632613495E-5</v>
@@ -10378,7 +10378,7 @@
         <v>0.08</v>
       </c>
       <c r="C6" s="1">
-        <v>-4.82314752419743E-5</v>
+        <v>-4.8381926228000002E-5</v>
       </c>
       <c r="D6" s="5">
         <v>-4.8327059630537406E-5</v>
@@ -10389,7 +10389,7 @@
         <v>0.1</v>
       </c>
       <c r="C7" s="1">
-        <v>-5.8242174885043102E-5</v>
+        <v>-5.8254362802999999E-5</v>
       </c>
       <c r="D7" s="5">
         <v>-5.8214613090967759E-5</v>
@@ -10400,7 +10400,7 @@
         <v>0.12</v>
       </c>
       <c r="C8" s="1">
-        <v>-5.8750070756472403E-5</v>
+        <v>-5.90513642E-5</v>
       </c>
       <c r="D8" s="5">
         <v>-5.9476518799783662E-5</v>
@@ -10411,7 +10411,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>-5.1055321590102399E-5</v>
+        <v>-5.0590765282999997E-5</v>
       </c>
       <c r="D9" s="5">
         <v>-4.8818561481311917E-5</v>
@@ -10422,7 +10422,7 @@
         <v>0.16</v>
       </c>
       <c r="C10" s="1">
-        <v>-5.3071646074225403E-5</v>
+        <v>-5.3045849070000002E-5</v>
       </c>
       <c r="D10" s="5">
         <v>-5.6223470892291516E-5</v>
@@ -10433,7 +10433,7 @@
         <v>0.18</v>
       </c>
       <c r="C11" s="1">
-        <v>-4.6994169509426397E-5</v>
+        <v>-4.7601848466000001E-5</v>
       </c>
       <c r="D11" s="5">
         <v>-4.4487871491583064E-5</v>
@@ -10444,7 +10444,7 @@
         <v>0.2</v>
       </c>
       <c r="C12" s="1">
-        <v>-4.3876236554767397E-5</v>
+        <v>-4.2684064224999999E-5</v>
       </c>
       <c r="D12" s="5">
         <v>-4.4288062781561166E-5</v>
@@ -10455,7 +10455,7 @@
         <v>0.22</v>
       </c>
       <c r="C13" s="1">
-        <v>-4.0469605079751801E-5</v>
+        <v>-4.0802986280999999E-5</v>
       </c>
       <c r="D13" s="5">
         <v>-4.1433431761106476E-5</v>
@@ -10466,7 +10466,7 @@
         <v>0.24</v>
       </c>
       <c r="C14" s="1">
-        <v>-2.9886507095783999E-5</v>
+        <v>-3.0717118408000003E-5</v>
       </c>
       <c r="D14" s="5">
         <v>-2.9185617677285336E-5</v>
@@ -10477,7 +10477,7 @@
         <v>0.26</v>
       </c>
       <c r="C15" s="1">
-        <v>-1.2774321966657E-5</v>
+        <v>-1.1031561081E-5</v>
       </c>
       <c r="D15" s="5">
         <v>-1.1180657566001173E-5</v>
@@ -10488,7 +10488,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C16" s="1">
-        <v>2.0734580411880098E-6</v>
+        <v>1.9771967825999999E-6</v>
       </c>
       <c r="D16" s="5">
         <v>-3.0113221782812616E-7</v>
@@ -10499,7 +10499,7 @@
         <v>0.3</v>
       </c>
       <c r="C17" s="1">
-        <v>6.3082087220332996E-8</v>
+        <v>-1.9980764292000001E-6</v>
       </c>
       <c r="D17" s="5">
         <v>1.4446275997670455E-7</v>
@@ -10510,7 +10510,7 @@
         <v>0.32</v>
       </c>
       <c r="C18" s="1">
-        <v>1.7528216987694E-5</v>
+        <v>1.9480463396999998E-5</v>
       </c>
       <c r="D18" s="5">
         <v>2.0314168068580329E-5</v>
@@ -10521,7 +10521,7 @@
         <v>0.34</v>
       </c>
       <c r="C19" s="1">
-        <v>1.36533663337891E-5</v>
+        <v>1.4740562487999999E-5</v>
       </c>
       <c r="D19" s="5">
         <v>1.0810789717652369E-5</v>
@@ -10532,7 +10532,7 @@
         <v>0.36</v>
       </c>
       <c r="C20" s="1">
-        <v>2.2139554400193301E-5</v>
+        <v>1.8085541525E-5</v>
       </c>
       <c r="D20" s="5">
         <v>2.1776619178126566E-5</v>
@@ -10543,7 +10543,7 @@
         <v>0.38</v>
       </c>
       <c r="C21" s="1">
-        <v>2.82455898221773E-5</v>
+        <v>3.1280334500999997E-5</v>
       </c>
       <c r="D21" s="5">
         <v>3.2335414289264008E-5</v>
@@ -10554,7 +10554,7 @@
         <v>0.4</v>
       </c>
       <c r="C22" s="1">
-        <v>2.2041825025677199E-5</v>
+        <v>2.3047572887E-5</v>
       </c>
       <c r="D22" s="5">
         <v>1.6784622857812792E-5</v>
@@ -10565,7 +10565,7 @@
         <v>0.42</v>
       </c>
       <c r="C23" s="1">
-        <v>3.5015068882452601E-5</v>
+        <v>2.9728318396999999E-5</v>
       </c>
       <c r="D23" s="5">
         <v>3.737275255843997E-5</v>
@@ -10576,7 +10576,7 @@
         <v>0.44</v>
       </c>
       <c r="C24" s="1">
-        <v>4.0774849471737397E-5</v>
+        <v>4.5057100056999997E-5</v>
       </c>
       <c r="D24" s="5">
         <v>4.245715172146447E-5</v>
@@ -10587,7 +10587,7 @@
         <v>0.46</v>
       </c>
       <c r="C25" s="1">
-        <v>4.2276681663143601E-5</v>
+        <v>4.3593888350000001E-5</v>
       </c>
       <c r="D25" s="5">
         <v>3.9294634916586801E-5</v>
@@ -10598,7 +10598,7 @@
         <v>0.48</v>
       </c>
       <c r="C26" s="1">
-        <v>2.7894851946095899E-5</v>
+        <v>2.1407199266999999E-5</v>
       </c>
       <c r="D26" s="5">
         <v>2.7032732759835199E-5</v>
@@ -10609,7 +10609,7 @@
         <v>0.5</v>
       </c>
       <c r="C27" s="1">
-        <v>3.6312638900440901E-5</v>
+        <v>4.0421374744000003E-5</v>
       </c>
       <c r="D27" s="5">
         <v>4.0855702536646277E-5</v>
@@ -10620,7 +10620,7 @@
         <v>0.52</v>
       </c>
       <c r="C28" s="1">
-        <v>2.9255282637525699E-5</v>
+        <v>3.3243795259999997E-5</v>
       </c>
       <c r="D28" s="5">
         <v>2.5800261937547475E-5</v>
@@ -10631,7 +10631,7 @@
         <v>0.54</v>
       </c>
       <c r="C29" s="1">
-        <v>2.14453689623244E-5</v>
+        <v>1.2569617802000001E-5</v>
       </c>
       <c r="D29" s="5">
         <v>1.9186516510671936E-5</v>
@@ -10642,7 +10642,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="C30" s="1">
-        <v>1.1176908620317901E-5</v>
+        <v>1.5647069757999999E-5</v>
       </c>
       <c r="D30" s="5">
         <v>1.7668644431978464E-5</v>
@@ -10653,7 +10653,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="C31" s="1">
-        <v>7.6720986947751397E-6</v>
+        <v>1.3376894063999999E-5</v>
       </c>
       <c r="D31" s="5">
         <v>2.6224624889437109E-6</v>
@@ -10664,7 +10664,7 @@
         <v>0.6</v>
       </c>
       <c r="C32" s="1">
-        <v>-4.0887386330775602E-9</v>
+        <v>-1.0856734057E-5</v>
       </c>
       <c r="D32" s="5">
         <v>-2.9892069619563699E-7</v>
@@ -10675,7 +10675,7 @@
         <v>0.62</v>
       </c>
       <c r="C33" s="1">
-        <v>-1.5295489684646099E-5</v>
+        <v>-1.0290716825999999E-5</v>
       </c>
       <c r="D33" s="5">
         <v>-1.2167288332420867E-5</v>
@@ -10686,7 +10686,7 @@
         <v>0.64</v>
       </c>
       <c r="C34" s="1">
-        <v>3.0273533472571198E-7</v>
+        <v>7.5755566655999998E-6</v>
       </c>
       <c r="D34" s="5">
         <v>1.6363651411666069E-6</v>
@@ -10697,7 +10697,7 @@
         <v>0.66</v>
       </c>
       <c r="C35" s="1">
-        <v>1.99939955927437E-5</v>
+        <v>8.2339116281999992E-6</v>
       </c>
       <c r="D35" s="5">
         <v>1.4117071259533986E-5</v>
@@ -10708,7 +10708,7 @@
         <v>0.68</v>
       </c>
       <c r="C36" s="1">
-        <v>2.5853588759456601E-5</v>
+        <v>2.8892142889E-5</v>
       </c>
       <c r="D36" s="5">
         <v>3.0553343094652519E-5</v>
@@ -10719,7 +10719,7 @@
         <v>0.7</v>
       </c>
       <c r="C37" s="1">
-        <v>3.8483629640621099E-5</v>
+        <v>4.8395300079999999E-5</v>
       </c>
       <c r="D37" s="5">
         <v>3.9728565752739087E-5</v>
@@ -10730,7 +10730,7 @@
         <v>0.72</v>
       </c>
       <c r="C38" s="1">
-        <v>4.8218074333425399E-5</v>
+        <v>3.6670434597000002E-5</v>
       </c>
       <c r="D38" s="5">
         <v>4.3704803829314187E-5</v>
@@ -10741,7 +10741,7 @@
         <v>0.74</v>
       </c>
       <c r="C39" s="1">
-        <v>2.2001236723266899E-5</v>
+        <v>2.1740273138999999E-5</v>
       </c>
       <c r="D39" s="5">
         <v>2.2548083506990224E-5</v>
@@ -10752,7 +10752,7 @@
         <v>0.76</v>
       </c>
       <c r="C40" s="1">
-        <v>3.6812808354721999E-5</v>
+        <v>4.8958410144000002E-5</v>
       </c>
       <c r="D40" s="5">
         <v>4.2676361772464588E-5</v>
@@ -10763,7 +10763,7 @@
         <v>0.78</v>
       </c>
       <c r="C41" s="1">
-        <v>4.6823247605973101E-5</v>
+        <v>3.6630917993000002E-5</v>
       </c>
       <c r="D41" s="5">
         <v>4.1681469156173989E-5</v>
@@ -10774,7 +10774,7 @@
         <v>0.8</v>
       </c>
       <c r="C42" s="1">
-        <v>3.1374806153563E-5</v>
+        <v>2.7547990109999999E-5</v>
       </c>
       <c r="D42" s="5">
         <v>2.782913543342147E-5</v>
@@ -10785,7 +10785,7 @@
         <v>0.82</v>
       </c>
       <c r="C43" s="1">
-        <v>8.1542956855948801E-6</v>
+        <v>2.1422222871999999E-5</v>
       </c>
       <c r="D43" s="5">
         <v>1.7451857274863869E-5</v>
@@ -10796,7 +10796,7 @@
         <v>0.84</v>
       </c>
       <c r="C44" s="1">
-        <v>4.0220517319028401E-6</v>
+        <v>-4.2989971264999999E-6</v>
       </c>
       <c r="D44" s="5">
         <v>-2.151254420823534E-6</v>
@@ -10807,7 +10807,7 @@
         <v>0.86</v>
       </c>
       <c r="C45" s="1">
-        <v>-1.0790082500739399E-5</v>
+        <v>-1.7002538349E-5</v>
       </c>
       <c r="D45" s="5">
         <v>-1.3277972357172985E-5</v>
@@ -10818,7 +10818,7 @@
         <v>0.88</v>
       </c>
       <c r="C46" s="1">
-        <v>-3.6894871329841398E-5</v>
+        <v>-2.4239609182E-5</v>
       </c>
       <c r="D46" s="5">
         <v>-3.1619510991731659E-5</v>
@@ -10829,7 +10829,7 @@
         <v>0.9</v>
       </c>
       <c r="C47" s="1">
-        <v>-3.9665186645911197E-5</v>
+        <v>-4.4106390509000002E-5</v>
       </c>
       <c r="D47" s="5">
         <v>-3.8523467082995921E-5</v>
@@ -10840,7 +10840,7 @@
         <v>0.92</v>
       </c>
       <c r="C48" s="1">
-        <v>-4.0528834798844298E-5</v>
+        <v>-4.9494343347999999E-5</v>
       </c>
       <c r="D48" s="5">
         <v>-4.9489193770568818E-5</v>
@@ -10851,7 +10851,7 @@
         <v>0.94</v>
       </c>
       <c r="C49" s="1">
-        <v>-5.6012614312206903E-5</v>
+        <v>-4.5159890705999997E-5</v>
       </c>
       <c r="D49" s="5">
         <v>-4.8541824071435258E-5</v>
@@ -10862,7 +10862,7 @@
         <v>0.96</v>
       </c>
       <c r="C50" s="1">
-        <v>-5.0733342569586803E-5</v>
+        <v>-5.0281211386000001E-5</v>
       </c>
       <c r="D50" s="5">
         <v>-4.897315739071928E-5</v>
@@ -10873,7 +10873,7 @@
         <v>0.98</v>
       </c>
       <c r="C51" s="1">
-        <v>-3.2847898083620498E-5</v>
+        <v>-4.3250712091999998E-5</v>
       </c>
       <c r="D51" s="5">
         <v>-3.9519989513792098E-5</v>
@@ -10884,7 +10884,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="1">
-        <v>-3.2261767259081601E-5</v>
+        <v>-2.3753903826999999E-5</v>
       </c>
       <c r="D52" s="5">
         <v>-3.0212768251658417E-5</v>
